--- a/tagproject/results/annotations_gen.xlsx
+++ b/tagproject/results/annotations_gen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C702"/>
+  <dimension ref="A1:C810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10156,918 +10156,2538 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr">
+      <c r="A649" t="n">
+        <v>0</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>small,</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>misty</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>island</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>stood</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>lighthouse</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>named</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Unlike</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>towering</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>1</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>1</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>stretched</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>clouds,</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>crooked,</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>paint</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>chipped</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>2</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>2</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>2</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>2</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>2</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>thing</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>2</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>2</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>2</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>didnâ€™t:</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>2</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>2</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>unshakable</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>2</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>determination</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>2</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>2</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>2</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>sailors</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>2</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>2</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>2</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>small,</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>misty</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>island</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>stood</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>lighthouse</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>named</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Unlike</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>towering</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>stretched</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>clouds,</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>crooked,</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>paint</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>chipped</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>2</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>2</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>2</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>2</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>2</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>thing</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>2</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>2</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>2</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>didnâ€™t:</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>2</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>2</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>unshakable</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>2</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>determination</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>2</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>2</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>2</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>sailors</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>2</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>2</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>2</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr">
+      <c r="B757" t="inlineStr">
         <is>
           <t>On</t>
         </is>
       </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B650" t="inlineStr">
+      <c r="B758" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr">
+      <c r="B759" t="inlineStr">
         <is>
           <t>edge</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
+      <c r="B760" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="C652" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B653" t="inlineStr">
+      <c r="B761" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C653" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B654" t="inlineStr">
+      <c r="B762" t="inlineStr">
         <is>
           <t>small,</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
+      <c r="B763" t="inlineStr">
         <is>
           <t>misty</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
+      <c r="B764" t="inlineStr">
         <is>
           <t>island</t>
         </is>
       </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
+      <c r="B765" t="inlineStr">
         <is>
           <t>stood</t>
         </is>
       </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B658" t="inlineStr">
+      <c r="B766" t="inlineStr">
         <is>
           <t>little</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B659" t="inlineStr">
+      <c r="B767" t="inlineStr">
         <is>
           <t>lighthouse</t>
         </is>
       </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr">
+      <c r="B768" t="inlineStr">
         <is>
           <t>named</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B661" t="inlineStr">
+      <c r="B769" t="inlineStr">
         <is>
           <t>Lumy</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr">
+      <c r="C769" t="inlineStr">
         <is>
           <t>B-PER</t>
         </is>
       </c>
     </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
+    <row r="770">
+      <c r="A770" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B662" t="inlineStr">
+      <c r="B770" t="inlineStr">
         <is>
           <t>Unlike</t>
         </is>
       </c>
-      <c r="C662" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B663" t="inlineStr">
+      <c r="B771" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="C663" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr">
+      <c r="B772" t="inlineStr">
         <is>
           <t>towering</t>
         </is>
       </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr">
+      <c r="B773" t="inlineStr">
         <is>
           <t>lighthouses</t>
         </is>
       </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr">
+      <c r="B774" t="inlineStr">
         <is>
           <t>that</t>
         </is>
       </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B667" t="inlineStr">
+      <c r="B775" t="inlineStr">
         <is>
           <t>stretched</t>
         </is>
       </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr">
+      <c r="B776" t="inlineStr">
         <is>
           <t>into</t>
         </is>
       </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr">
+      <c r="B777" t="inlineStr">
         <is>
           <t>clouds,</t>
         </is>
       </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr">
+      <c r="B778" t="inlineStr">
         <is>
           <t>Lumy</t>
         </is>
       </c>
-      <c r="C670" t="inlineStr">
+      <c r="C778" t="inlineStr">
         <is>
           <t>B-PER</t>
         </is>
       </c>
     </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
+    <row r="779">
+      <c r="A779" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr">
+      <c r="B779" t="inlineStr">
         <is>
           <t>was</t>
         </is>
       </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B672" t="inlineStr">
+      <c r="B780" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B673" t="inlineStr">
+      <c r="B781" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B674" t="inlineStr">
+      <c r="B782" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B675" t="inlineStr">
+      <c r="B783" t="inlineStr">
         <is>
           <t>bit</t>
         </is>
       </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B676" t="inlineStr">
+      <c r="B784" t="inlineStr">
         <is>
           <t>crooked,</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B677" t="inlineStr">
+      <c r="B785" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B678" t="inlineStr">
+      <c r="B786" t="inlineStr">
         <is>
           <t>its</t>
         </is>
       </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B679" t="inlineStr">
+      <c r="B787" t="inlineStr">
         <is>
           <t>paint</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B680" t="inlineStr">
+      <c r="B788" t="inlineStr">
         <is>
           <t>chipped</t>
         </is>
       </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B681" t="inlineStr">
+      <c r="B789" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B682" t="inlineStr">
+      <c r="B790" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B683" t="inlineStr">
+      <c r="B791" t="inlineStr">
         <is>
           <t>as</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B684" t="inlineStr">
+      <c r="B792" t="inlineStr">
         <is>
           <t>bright</t>
         </is>
       </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B685" t="inlineStr">
+      <c r="B793" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B686" t="inlineStr">
+      <c r="B794" t="inlineStr">
         <is>
           <t>But</t>
         </is>
       </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B687" t="inlineStr">
+      <c r="B795" t="inlineStr">
         <is>
           <t>Lumy</t>
         </is>
       </c>
-      <c r="C687" t="inlineStr">
+      <c r="C795" t="inlineStr">
         <is>
           <t>B-PER</t>
         </is>
       </c>
     </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
+    <row r="796">
+      <c r="A796" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B688" t="inlineStr">
+      <c r="B796" t="inlineStr">
         <is>
           <t>had</t>
         </is>
       </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B689" t="inlineStr">
+      <c r="B797" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B690" t="inlineStr">
+      <c r="B798" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B691" t="inlineStr">
+      <c r="B799" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B692" t="inlineStr">
+      <c r="B800" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B693" t="inlineStr">
+      <c r="B801" t="inlineStr">
         <is>
           <t>didnâ€™t:</t>
         </is>
       </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B694" t="inlineStr">
+      <c r="B802" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B695" t="inlineStr">
+      <c r="B803" t="inlineStr">
         <is>
           <t>unshakable</t>
         </is>
       </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B696" t="inlineStr">
+      <c r="B804" t="inlineStr">
         <is>
           <t>determination</t>
         </is>
       </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B697" t="inlineStr">
+      <c r="B805" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B698" t="inlineStr">
+      <c r="B806" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B699" t="inlineStr">
+      <c r="B807" t="inlineStr">
         <is>
           <t>sailors</t>
         </is>
       </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr">
+      <c r="B808" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B701" t="inlineStr">
+      <c r="B809" t="inlineStr">
         <is>
           <t>their</t>
         </is>
       </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B702" t="inlineStr">
+      <c r="B810" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="C702" t="inlineStr">
+      <c r="C810" t="inlineStr">
         <is>
           <t>O</t>
         </is>
